--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value592.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value592.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.479104772614702</v>
+        <v>1.076312065124512</v>
       </c>
       <c r="B1">
-        <v>1.546582811064627</v>
+        <v>1.746430993080139</v>
       </c>
       <c r="C1">
-        <v>1.568615355939204</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.030483052701582</v>
+        <v>1.907104134559631</v>
       </c>
       <c r="E1">
-        <v>2.228420691374305</v>
+        <v>1.153485059738159</v>
       </c>
     </row>
   </sheetData>
